--- a/medicine/Soins infirmiers et profession infirmière/Résidence_sanitaire_assistancielle/Résidence_sanitaire_assistancielle.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Résidence_sanitaire_assistancielle/Résidence_sanitaire_assistancielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_sanitaire_assistancielle</t>
+          <t>Résidence_sanitaire_assistancielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les résidences sanitaires assistancielles (en italien, residenze sanitarie assistanziali), ou RSA, sont des structures à responsabilité sanitaire bien que non-hospitalières, introduites en Italie au milieu des années 1990, qui accueillent pour une période variable (de quelques semaines à une durée indéterminée) des personnes non-autonomes ne pouvant être assistées chez elles et ayant besoin de traitements spécifiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_sanitaire_assistancielle</t>
+          <t>Résidence_sanitaire_assistancielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les résidences sanitaires assistancielles (RSA) se distinguent des hôpitaux, réservés aux pathologies aiguës, et des maisons de retraites, destinées aux retraités, même autonomes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_sanitaire_assistancielle</t>
+          <t>Résidence_sanitaire_assistancielle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Discipline réglementaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les résidences sanitaires assistancielles (RSA) sont gérées par des organismes publics ou privés offrant accueil, prestations sanitaires et assistance dans la rééducation et l'insertion sociale.
 Généralement, dans une RSA sont garanties l'assistance médicale et infirmière, l'assistance réadaptative et l'aide à l'organisation du quotidien et à la socialisation.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_sanitaire_assistancielle</t>
+          <t>Résidence_sanitaire_assistancielle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de l'épidémie de Covid-19 en Italie, de nombreuses enquêtes ont été lancées à l'encontre de  résidences sanitaires assistancielles (RSA) soupçonnées de ne pas avoir respecté les protocoles de sécurité, créant de la sorte des foyers contagieux, et, à terme, la mort de 6 000 à 7 000 personnes âgées en deux mois[1]. Dans certains cas, les biens des RSA ont été mis sous séquestre[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de l'épidémie de Covid-19 en Italie, de nombreuses enquêtes ont été lancées à l'encontre de  résidences sanitaires assistancielles (RSA) soupçonnées de ne pas avoir respecté les protocoles de sécurité, créant de la sorte des foyers contagieux, et, à terme, la mort de 6 000 à 7 000 personnes âgées en deux mois. Dans certains cas, les biens des RSA ont été mis sous séquestre,.
 </t>
         </is>
       </c>
